--- a/11.xlsx
+++ b/11.xlsx
@@ -60,7 +60,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2008-Q1</t>
+    <t>2007-Q2</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -173,430 +173,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2008-Q1</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2007-Q2</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +605,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2008-Q1</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2007-Q2</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2008-Q1</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2007-Q2</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2008-Q1</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2007-Q2</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,43 +725,43 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2008-Q1</t>
+    <t>Q.USD.US.P.A.A.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2007-Q2</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2008-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2007-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2007-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2008-Q1</t>
+    <t>Q.USD.US.G.A.A.B.USD.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2007-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2006-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2007-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2007-Q2</t>
   </si>
 </sst>
 </file>
@@ -1418,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>5338.780654</v>
+        <v>4603.465933</v>
       </c>
       <c r="C3">
-        <v>5520.641423</v>
+        <v>4866.621635</v>
       </c>
       <c r="D3">
-        <v>5890.958036</v>
+        <v>5211.837337</v>
       </c>
       <c r="E3">
-        <v>24.2</v>
+        <v>19.3</v>
       </c>
       <c r="F3">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="G3">
-        <v>18.3</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1441,22 +1441,22 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1661.857861</v>
+        <v>1447.402483</v>
       </c>
       <c r="C4">
-        <v>1763.10669</v>
+        <v>1481.575351</v>
       </c>
       <c r="D4">
-        <v>1905.388816</v>
+        <v>1592.973411</v>
       </c>
       <c r="E4">
-        <v>18.8</v>
+        <v>11.7</v>
       </c>
       <c r="F4">
-        <v>21.4</v>
+        <v>10.9</v>
       </c>
       <c r="G4">
-        <v>27.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>310.422399</v>
+        <v>254.686245</v>
       </c>
       <c r="C5">
-        <v>357.904746</v>
+        <v>264.932811</v>
       </c>
       <c r="D5">
-        <v>383.296936</v>
+        <v>291.532455</v>
       </c>
       <c r="E5">
-        <v>32.8</v>
+        <v>26.8</v>
       </c>
       <c r="F5">
-        <v>40.1</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>42.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>21.642</v>
+        <v>14.086</v>
       </c>
       <c r="C6">
-        <v>22.136</v>
+        <v>16.582</v>
       </c>
       <c r="D6">
-        <v>24.014</v>
+        <v>18.414</v>
       </c>
       <c r="E6">
-        <v>63.2</v>
+        <v>25.4</v>
       </c>
       <c r="F6">
-        <v>57.1</v>
+        <v>44.4</v>
       </c>
       <c r="G6">
-        <v>44.8</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>8.631679999999999</v>
+        <v>8.67</v>
       </c>
       <c r="C7">
-        <v>8.31368</v>
+        <v>7.528</v>
       </c>
       <c r="D7">
-        <v>8.196680000000001</v>
+        <v>8.538180000000001</v>
       </c>
       <c r="E7">
-        <v>-1.9</v>
+        <v>20.7</v>
       </c>
       <c r="F7">
-        <v>-4.1</v>
+        <v>7.7</v>
       </c>
       <c r="G7">
-        <v>8.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>573.843836</v>
+        <v>528.749142</v>
       </c>
       <c r="C8">
-        <v>609.153134</v>
+        <v>525.732006</v>
       </c>
       <c r="D8">
-        <v>679.139049</v>
+        <v>564.417408</v>
       </c>
       <c r="E8">
-        <v>10.7</v>
+        <v>14.7</v>
       </c>
       <c r="F8">
-        <v>14.3</v>
+        <v>10.6</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>21.0998</v>
+        <v>16.0768</v>
       </c>
       <c r="C9">
-        <v>21.3683</v>
+        <v>17.7268</v>
       </c>
       <c r="D9">
-        <v>30.5983</v>
+        <v>21.8448</v>
       </c>
       <c r="E9">
-        <v>24.1</v>
+        <v>-6.8</v>
       </c>
       <c r="F9">
-        <v>32.9</v>
+        <v>14.9</v>
       </c>
       <c r="G9">
-        <v>72.59999999999999</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>38.95919</v>
+        <v>40.56256</v>
       </c>
       <c r="C10">
-        <v>36.93744</v>
+        <v>39.93869</v>
       </c>
       <c r="D10">
-        <v>38.62651</v>
+        <v>41.60678</v>
       </c>
       <c r="E10">
-        <v>-4.8</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-8.9</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>-4.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>34.760826</v>
+        <v>25.3062</v>
       </c>
       <c r="C11">
-        <v>38.980517</v>
+        <v>28.6962</v>
       </c>
       <c r="D11">
-        <v>43.372328</v>
+        <v>33.0417</v>
       </c>
       <c r="E11">
-        <v>47.9</v>
+        <v>56.6</v>
       </c>
       <c r="F11">
-        <v>53.9</v>
+        <v>46.7</v>
       </c>
       <c r="G11">
-        <v>51.1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>15.486</v>
+        <v>14.23</v>
       </c>
       <c r="C12">
-        <v>16.118</v>
+        <v>16.256</v>
       </c>
       <c r="D12">
-        <v>18.92</v>
+        <v>15.639</v>
       </c>
       <c r="E12">
-        <v>8.1</v>
+        <v>12.7</v>
       </c>
       <c r="F12">
-        <v>13.2</v>
+        <v>10.2</v>
       </c>
       <c r="G12">
-        <v>16.3</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>81.45263</v>
+        <v>74.863437</v>
       </c>
       <c r="C13">
-        <v>83.60003</v>
+        <v>74.31858</v>
       </c>
       <c r="D13">
-        <v>85.70824</v>
+        <v>81.56393</v>
       </c>
       <c r="E13">
-        <v>13.9</v>
+        <v>26.3</v>
       </c>
       <c r="F13">
-        <v>11.7</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>15.2</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>23.43804</v>
+        <v>25.21975</v>
       </c>
       <c r="C14">
-        <v>24.52815</v>
+        <v>24.884925</v>
       </c>
       <c r="D14">
-        <v>27.06915</v>
+        <v>23.95304</v>
       </c>
       <c r="E14">
-        <v>-6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F14">
-        <v>-2.7</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>8.800000000000001</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1694,22 +1694,22 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>282.265519</v>
+        <v>211.231847</v>
       </c>
       <c r="C15">
-        <v>302.966705</v>
+        <v>226.098798</v>
       </c>
       <c r="D15">
-        <v>319.914724</v>
+        <v>252.781287</v>
       </c>
       <c r="E15">
-        <v>38.9</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>43.4</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>41.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1717,22 +1717,22 @@
         <v>130</v>
       </c>
       <c r="B16">
-        <v>96.13707599999999</v>
+        <v>70.438108</v>
       </c>
       <c r="C16">
-        <v>99.48507600000001</v>
+        <v>75.477557</v>
       </c>
       <c r="D16">
-        <v>102.708525</v>
+        <v>89.13985700000001</v>
       </c>
       <c r="E16">
-        <v>43.4</v>
+        <v>-5.6</v>
       </c>
       <c r="F16">
-        <v>41.2</v>
+        <v>3.4</v>
       </c>
       <c r="G16">
-        <v>36.1</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1740,22 +1740,22 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>86.584281</v>
+        <v>72.812404</v>
       </c>
       <c r="C17">
-        <v>91.628079</v>
+        <v>77.583387</v>
       </c>
       <c r="D17">
-        <v>97.390585</v>
+        <v>81.476572</v>
       </c>
       <c r="E17">
-        <v>27.5</v>
+        <v>29.1</v>
       </c>
       <c r="F17">
-        <v>24.7</v>
+        <v>23.3</v>
       </c>
       <c r="G17">
-        <v>19.4</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1763,22 +1763,22 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>495.326107</v>
+        <v>452.735249</v>
       </c>
       <c r="C18">
-        <v>493.082105</v>
+        <v>464.811735</v>
       </c>
       <c r="D18">
-        <v>523.038107</v>
+        <v>484.242261</v>
       </c>
       <c r="E18">
-        <v>11.8</v>
+        <v>2.1</v>
       </c>
       <c r="F18">
-        <v>8.9</v>
+        <v>4.6</v>
       </c>
       <c r="G18">
-        <v>12.1</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1786,22 +1786,22 @@
         <v>151</v>
       </c>
       <c r="B19">
-        <v>51.29383</v>
+        <v>45.517867</v>
       </c>
       <c r="C19">
-        <v>51.791023</v>
+        <v>45.549576</v>
       </c>
       <c r="D19">
-        <v>52.419631</v>
+        <v>47.765653</v>
       </c>
       <c r="E19">
-        <v>16.3</v>
+        <v>5.2</v>
       </c>
       <c r="F19">
-        <v>13.8</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>15.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1809,22 +1809,22 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>108.684543</v>
+        <v>103.124323</v>
       </c>
       <c r="C20">
-        <v>109.793884</v>
+        <v>106.095183</v>
       </c>
       <c r="D20">
-        <v>115.797374</v>
+        <v>108.095023</v>
       </c>
       <c r="E20">
-        <v>16.6</v>
+        <v>5.6</v>
       </c>
       <c r="F20">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="G20">
-        <v>9.1</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1832,22 +1832,22 @@
         <v>165</v>
       </c>
       <c r="B21">
-        <v>37.85064</v>
+        <v>37.02118</v>
       </c>
       <c r="C21">
-        <v>38.73064</v>
+        <v>37.23969</v>
       </c>
       <c r="D21">
-        <v>40.85459</v>
+        <v>37.44169</v>
       </c>
       <c r="E21">
-        <v>7.3</v>
+        <v>11.2</v>
       </c>
       <c r="F21">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1855,22 +1855,22 @@
         <v>172</v>
       </c>
       <c r="B22">
-        <v>113.003187</v>
+        <v>105.119596</v>
       </c>
       <c r="C22">
-        <v>100.030018</v>
+        <v>105.473325</v>
       </c>
       <c r="D22">
-        <v>112.50424</v>
+        <v>107.307238</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>-3.3</v>
       </c>
       <c r="F22">
-        <v>-4.8</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>6.6</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1883,22 +1883,22 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>5338.780654</v>
+        <v>4603.465933</v>
       </c>
       <c r="C24">
-        <v>5520.641423</v>
+        <v>4866.621635</v>
       </c>
       <c r="D24">
-        <v>5890.958036</v>
+        <v>5211.837337</v>
       </c>
       <c r="E24">
-        <v>24.2</v>
+        <v>19.3</v>
       </c>
       <c r="F24">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="G24">
-        <v>18.3</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1906,22 +1906,22 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>3001.343115</v>
+        <v>2531.545581</v>
       </c>
       <c r="C25">
-        <v>3162.395695</v>
+        <v>2692.857255</v>
       </c>
       <c r="D25">
-        <v>3541.853903</v>
+        <v>2920.479513</v>
       </c>
       <c r="E25">
-        <v>28.4</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>24.7</v>
+        <v>19.6</v>
       </c>
       <c r="G25">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1929,22 +1929,22 @@
         <v>187</v>
       </c>
       <c r="B26">
-        <v>2337.437539</v>
+        <v>2071.920352</v>
       </c>
       <c r="C26">
-        <v>2358.245727</v>
+        <v>2173.76438</v>
       </c>
       <c r="D26">
-        <v>2349.104133</v>
+        <v>2291.357825</v>
       </c>
       <c r="E26">
-        <v>19.3</v>
+        <v>17.4</v>
       </c>
       <c r="F26">
-        <v>13.8</v>
+        <v>18.6</v>
       </c>
       <c r="G26">
-        <v>8.1</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1952,22 +1952,22 @@
         <v>194</v>
       </c>
       <c r="B27">
-        <v>1100.158743</v>
+        <v>1045.017476</v>
       </c>
       <c r="C27">
-        <v>1093.78413</v>
+        <v>1069.89124</v>
       </c>
       <c r="D27">
-        <v>1106.078263</v>
+        <v>1092.875201</v>
       </c>
       <c r="E27">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="F27">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="G27">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1975,22 +1975,22 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>1661.857861</v>
+        <v>1447.402483</v>
       </c>
       <c r="C28">
-        <v>1763.10669</v>
+        <v>1481.575351</v>
       </c>
       <c r="D28">
-        <v>1905.388816</v>
+        <v>1592.973411</v>
       </c>
       <c r="E28">
-        <v>18.8</v>
+        <v>11.7</v>
       </c>
       <c r="F28">
-        <v>21.4</v>
+        <v>10.9</v>
       </c>
       <c r="G28">
-        <v>27.3</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1998,22 +1998,22 @@
         <v>180</v>
       </c>
       <c r="B29">
-        <v>1079.942115</v>
+        <v>887.675581</v>
       </c>
       <c r="C29">
-        <v>1167.562695</v>
+        <v>915.414255</v>
       </c>
       <c r="D29">
-        <v>1313.266903</v>
+        <v>1011.270513</v>
       </c>
       <c r="E29">
-        <v>25.3</v>
+        <v>13.9</v>
       </c>
       <c r="F29">
-        <v>30.8</v>
+        <v>14.7</v>
       </c>
       <c r="G29">
-        <v>41.4</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2021,22 +2021,22 @@
         <v>187</v>
       </c>
       <c r="B30">
-        <v>581.915746</v>
+        <v>559.726901</v>
       </c>
       <c r="C30">
-        <v>595.543995</v>
+        <v>566.161096</v>
       </c>
       <c r="D30">
-        <v>592.1219129999999</v>
+        <v>581.702899</v>
       </c>
       <c r="E30">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="F30">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="G30">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2044,22 +2044,22 @@
         <v>194</v>
       </c>
       <c r="B31">
-        <v>504.278678</v>
+        <v>490.239028</v>
       </c>
       <c r="C31">
-        <v>515.920092</v>
+        <v>494.316107</v>
       </c>
       <c r="D31">
-        <v>514.450136</v>
+        <v>506.428446</v>
       </c>
       <c r="E31">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="F31">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="G31">
-        <v>4.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2072,22 +2072,22 @@
         <v>220</v>
       </c>
       <c r="B33">
-        <v>32722.7342</v>
+        <v>30849.350778</v>
       </c>
       <c r="C33">
-        <v>33236.170514</v>
+        <v>31477.115771</v>
       </c>
       <c r="D33">
-        <v>33759.927143</v>
+        <v>32124.999462</v>
       </c>
       <c r="E33">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="F33">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="G33">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>227</v>
       </c>
       <c r="B34">
-        <v>8909.462</v>
+        <v>8571.031999999999</v>
       </c>
       <c r="C34">
-        <v>9016.927</v>
+        <v>8750.219999999999</v>
       </c>
       <c r="D34">
-        <v>9209.093000000001</v>
+        <v>8821.188</v>
       </c>
       <c r="E34">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="F34">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="G34">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
